--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>447.8629023899479</v>
+        <v>447.9159720137933</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.20770982117462</v>
+        <v>10.20770364197185</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>544.9827846988749</v>
+        <v>544.9820324004952</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>967.3465847353496</v>
+        <v>967.3450886135182</v>
       </c>
       <c r="E5" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.1733152882332</v>
+        <v>468.1750691236712</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>879.4014503778785</v>
+        <v>879.4028318066047</v>
       </c>
       <c r="E6" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.8463947179389</v>
+        <v>294.8561377973954</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.6804754463967</v>
+        <v>686.6905195922814</v>
       </c>
       <c r="E7" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.6187711370696</v>
+        <v>225.6215695437352</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.8281971101178</v>
+        <v>611.8306444605051</v>
       </c>
       <c r="E8" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.698738310566</v>
+        <v>224.7015391581304</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.8407334828818</v>
+        <v>610.8431830814964</v>
       </c>
       <c r="E9" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.7678423775133</v>
+        <v>164.7707184406231</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.8883161355729</v>
+        <v>546.8908241291646</v>
       </c>
       <c r="E10" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.93301210643899</v>
+        <v>96.93284952942072</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.2598313076225</v>
+        <v>475.2591281851035</v>
       </c>
       <c r="E11" t="n">
-        <v>458.0706122111225</v>
+        <v>458.1236756557652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787037391001079</v>
+        <v>0.7787039248575968</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211057029114434</v>
+        <v>0.1211060048107835</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03147862989257381</v>
+        <v>0.03147846946088822</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06216305727171639</v>
+        <v>0.06216273573368948</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00654887082415846</v>
+        <v>0.006548865137042044</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.675980449932549</v>
+        <v>9.675974592610364</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5317293712420821</v>
+        <v>0.5317290493614976</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572030534025484</v>
+        <v>3.572026997164374</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944176</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6517453475921732</v>
+        <v>0.6517328115979669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6823449362744646</v>
+        <v>0.682330494724297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9551552491187784</v>
+        <v>0.9551570926949507</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.86498490404489</v>
+        <v>54.8746654405717</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.43068578803916</v>
+        <v>34.43475885552112</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484488002887641</v>
+        <v>0.8484488108332002</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.07401380312955</v>
+        <v>14.07558718222797</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7183325370472862</v>
+        <v>0.718497166948862</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.007127578019482</v>
+        <v>5.009536440064274</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.5881630313899401</v>
+        <v>0.5881354811225404</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.353157734856694</v>
+        <v>1.354782962758343</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3926409534944762</v>
+        <v>0.3928503820687028</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1256754281228898</v>
+        <v>0.1257350059955007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1401661059980407</v>
+        <v>0.1402319897411545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8966178180383105</v>
+        <v>0.8966214215999299</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42397.6797605908</v>
+        <v>42394.04577581502</v>
       </c>
       <c r="C2" t="n">
-        <v>42825.93915211192</v>
+        <v>42822.26846041922</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91294.19988958033</v>
+        <v>91296.45809986313</v>
       </c>
       <c r="C3" t="n">
-        <v>92216.36352482862</v>
+        <v>92218.64454531629</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39993.02567460194</v>
+        <v>39993.02108053888</v>
       </c>
       <c r="C4" t="n">
-        <v>40396.99563091106</v>
+        <v>40396.99099044331</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.7124166769061</v>
+        <v>503.7167023905959</v>
       </c>
       <c r="C5" t="n">
-        <v>508.8004208857637</v>
+        <v>508.8047498894908</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32640.51211079151</v>
+        <v>32641.28600946029</v>
       </c>
       <c r="C6" t="n">
-        <v>32970.21425332476</v>
+        <v>32970.99596915181</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38341.09180992458</v>
+        <v>38338.5181574121</v>
       </c>
       <c r="C7" t="n">
-        <v>38728.37556558038</v>
+        <v>38725.77591657788</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.34193579080736</v>
+        <v>73.31567642872825</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.05262917577942</v>
+        <v>62.07675838839799</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.355068979987087</v>
+        <v>5.3571991294476</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.0927600562694</v>
+        <v>518.0896322434726</v>
       </c>
       <c r="C3" t="n">
-        <v>6.751594057268189</v>
+        <v>6.752518678240014</v>
       </c>
       <c r="D3" t="n">
-        <v>3457.844804019723</v>
+        <v>3457.82680999786</v>
       </c>
       <c r="E3" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.9103627645017</v>
+        <v>286.9196150965472</v>
       </c>
       <c r="C4" t="n">
-        <v>7.112568351293409</v>
+        <v>7.113537271156903</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.154223839747</v>
+        <v>2771.141417002396</v>
       </c>
       <c r="E4" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.5903297122687</v>
+        <v>285.5984760598151</v>
       </c>
       <c r="C5" t="n">
-        <v>7.112568351293409</v>
+        <v>7.113537271156903</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.290901118069</v>
+        <v>1266.334143217788</v>
       </c>
       <c r="E5" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.5857666426411</v>
+        <v>160.5794093876125</v>
       </c>
       <c r="C6" t="n">
-        <v>7.112568351293409</v>
+        <v>7.113537271156903</v>
       </c>
       <c r="D6" t="n">
-        <v>681.8182429932141</v>
+        <v>681.7913878755123</v>
       </c>
       <c r="E6" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.1304212319454</v>
+        <v>154.132480071729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5312733351336384</v>
+        <v>0.531302021331378</v>
       </c>
       <c r="D7" t="n">
-        <v>650.0260078081643</v>
+        <v>650.0349157586303</v>
       </c>
       <c r="E7" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.3242310696029</v>
+        <v>168.326984104087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5249074024528095</v>
+        <v>0.5249529508973817</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.551972327112</v>
+        <v>2784.556192949853</v>
       </c>
       <c r="E8" t="n">
-        <v>13.26855022099328</v>
+        <v>13.26950623983838</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.1304211170533</v>
+        <v>154.1324799568328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5312733351336384</v>
+        <v>0.531302021331378</v>
       </c>
       <c r="D9" t="n">
-        <v>2750.804198204697</v>
+        <v>2750.806587907505</v>
       </c>
       <c r="E9" t="n">
-        <v>13.26855022099328</v>
+        <v>13.26950623983838</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.4669813702409</v>
+        <v>150.4727041974269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5312733351336384</v>
+        <v>0.531302021331378</v>
       </c>
       <c r="D10" t="n">
-        <v>634.2249682782025</v>
+        <v>634.249640785721</v>
       </c>
       <c r="E10" t="n">
-        <v>71.34460757570054</v>
+        <v>71.35197197502167</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.4669813702409</v>
+        <v>150.4727041974269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5312733351336384</v>
+        <v>0.531302021331378</v>
       </c>
       <c r="D11" t="n">
-        <v>634.2249682782025</v>
+        <v>634.249640785721</v>
       </c>
       <c r="E11" t="n">
-        <v>84.89676644521393</v>
+        <v>84.90493771723132</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5312733351336384</v>
+        <v>0.531302021331378</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6097412096618</v>
+        <v>251.6097652975839</v>
       </c>
       <c r="E12" t="n">
-        <v>84.89366445745151</v>
+        <v>84.90333970404497</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.58579426076034</v>
+        <v>42.58352134195042</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>178.9472795304815</v>
+        <v>178.9377826130604</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34858852193388</v>
+        <v>71.35694885449313</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.96262081598871</v>
+        <v>41.96007961311398</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.3435090246209</v>
+        <v>176.3328913790474</v>
       </c>
       <c r="E14" t="n">
-        <v>62.38909300424657</v>
+        <v>62.39713464909664</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.5942098854531</v>
+        <v>68.59195709525943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02935208327187969</v>
+        <v>0.02934919662032163</v>
       </c>
       <c r="D15" t="n">
-        <v>287.1736780163646</v>
+        <v>287.1642377773552</v>
       </c>
       <c r="E15" t="n">
-        <v>57.9575645854968</v>
+        <v>57.95943725602424</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.20998548700794</v>
+        <v>43.20914383775607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02934438193141261</v>
+        <v>0.02933909678843993</v>
       </c>
       <c r="D16" t="n">
-        <v>180.969516728358</v>
+        <v>180.9659939951405</v>
       </c>
       <c r="E16" t="n">
-        <v>57.95039340098952</v>
+        <v>57.94991085140591</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>618.4843876905024</v>
+        <v>618.4802489735829</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>77.91104342152393</v>
+        <v>77.91052206357206</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.57682093029725</v>
+        <v>55.57436943125148</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>232.7001492351546</v>
+        <v>232.6898848086499</v>
       </c>
       <c r="E19" t="n">
-        <v>77.91104342152393</v>
+        <v>77.91052206357206</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.46989214441851</v>
+        <v>97.47209584236225</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09258862723286441</v>
+        <v>0.09259034588656145</v>
       </c>
       <c r="D20" t="n">
-        <v>2644.485659155383</v>
+        <v>2644.477468759776</v>
       </c>
       <c r="E20" t="n">
-        <v>27.34865424068038</v>
+        <v>27.35104965175653</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.05865952367515</v>
+        <v>96.05916715947401</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0879591958712212</v>
+        <v>0.08796082859223338</v>
       </c>
       <c r="D21" t="n">
-        <v>402.5492788886168</v>
+        <v>402.5514179470555</v>
       </c>
       <c r="E21" t="n">
-        <v>27.34865424068038</v>
+        <v>27.35104965175653</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.55972311188192</v>
+        <v>66.55762116553493</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>278.6855606694496</v>
+        <v>278.6767598200947</v>
       </c>
       <c r="E22" t="n">
-        <v>618.4843876905024</v>
+        <v>618.4802489735829</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>618.4843876905024</v>
+        <v>618.4802489735829</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.25554862202188</v>
+        <v>39.25523980444716</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>618.4843876905024</v>
+        <v>618.4802489735829</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.77377717496262</v>
+        <v>69.77150652152164</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03089692975987336</v>
+        <v>0.03089389117928593</v>
       </c>
       <c r="D25" t="n">
-        <v>2517.879963621657</v>
+        <v>2517.862452331494</v>
       </c>
       <c r="E25" t="n">
-        <v>30.60225278823705</v>
+        <v>30.59964992151839</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>515.3309765540222</v>
+        <v>515.3273259537368</v>
       </c>
       <c r="C26" t="n">
-        <v>6.150170443514324</v>
+        <v>6.151020686331583</v>
       </c>
       <c r="D26" t="n">
-        <v>3457.844804019723</v>
+        <v>3457.82680999786</v>
       </c>
       <c r="E26" t="n">
-        <v>49.12034145542364</v>
+        <v>49.12743521052635</v>
       </c>
       <c r="F26" t="n">
-        <v>6.916216144997099</v>
+        <v>6.916132364802968</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.3570383329731</v>
+        <v>196.3519589651538</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3970718300960146</v>
+        <v>0.3971200616917617</v>
       </c>
       <c r="D27" t="n">
-        <v>2853.429827376902</v>
+        <v>2853.416650020622</v>
       </c>
       <c r="E27" t="n">
-        <v>49.12034145542364</v>
+        <v>49.12743521052635</v>
       </c>
       <c r="F27" t="n">
-        <v>7.159711449357599</v>
+        <v>7.159628547376841</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.7964302756903</v>
+        <v>165.8001303692289</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4471750826240664</v>
+        <v>0.4472305345081555</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.551972327112</v>
+        <v>2784.556192949853</v>
       </c>
       <c r="E28" t="n">
-        <v>13.26855022099328</v>
+        <v>13.26950623983838</v>
       </c>
       <c r="F28" t="n">
-        <v>6.954597322227887</v>
+        <v>6.954551629422232</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.4075512863657</v>
+        <v>189.4047263148635</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3970718300960146</v>
+        <v>0.3971200616917617</v>
       </c>
       <c r="D29" t="n">
-        <v>2838.781237631432</v>
+        <v>2838.772594662467</v>
       </c>
       <c r="E29" t="n">
-        <v>62.38889167641692</v>
+        <v>62.39694145036473</v>
       </c>
       <c r="F29" t="n">
-        <v>7.128278061482191</v>
+        <v>7.128204623490137</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.46997320003669</v>
+        <v>97.47204434946178</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09259676976208801</v>
+        <v>0.09260372165867069</v>
       </c>
       <c r="D30" t="n">
-        <v>2644.485733660058</v>
+        <v>2644.477421465845</v>
       </c>
       <c r="E30" t="n">
-        <v>62.38889167641692</v>
+        <v>62.39694145036473</v>
       </c>
       <c r="F30" t="n">
-        <v>7.311650057109026</v>
+        <v>7.311593895129753</v>
       </c>
       <c r="G30" t="n">
-        <v>98.80362013447883</v>
+        <v>98.80310431200458</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.77331226638512</v>
+        <v>69.77011237409653</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03089630760024845</v>
+        <v>0.0308920256612548</v>
       </c>
       <c r="D31" t="n">
-        <v>2517.87881408979</v>
+        <v>2517.859350001606</v>
       </c>
       <c r="E31" t="n">
-        <v>35.03357987915717</v>
+        <v>35.03715411585888</v>
       </c>
       <c r="F31" t="n">
-        <v>7.442921945251911</v>
+        <v>7.442925763751975</v>
       </c>
       <c r="G31" t="n">
-        <v>95.37923608401164</v>
+        <v>95.37865231449334</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.72008092988597</v>
+        <v>42.75247916759793</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008525301964299256</v>
+        <v>0.008539750471102572</v>
       </c>
       <c r="D32" t="n">
-        <v>2517.87881408979</v>
+        <v>2517.859350001606</v>
       </c>
       <c r="E32" t="n">
-        <v>4.438699603257049</v>
+        <v>4.447223797690725</v>
       </c>
       <c r="F32" t="n">
-        <v>8.013416271306102</v>
+        <v>8.012595206820167</v>
       </c>
       <c r="G32" t="n">
-        <v>97.47911454945518</v>
+        <v>97.47581466298473</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.48364666869281</v>
+        <v>25.48680274261613</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003262483238598698</v>
+        <v>0.003263094862293859</v>
       </c>
       <c r="D33" t="n">
-        <v>2513.536964263483</v>
+        <v>2513.461048434027</v>
       </c>
       <c r="E33" t="n">
-        <v>4.438699603257049</v>
+        <v>4.447223797690725</v>
       </c>
       <c r="F33" t="n">
-        <v>8.432991551560265</v>
+        <v>8.432652172296113</v>
       </c>
       <c r="G33" t="n">
-        <v>98.61323869078451</v>
+        <v>98.60988964220037</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.48364666869281</v>
+        <v>25.48680274261613</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003262483238598698</v>
+        <v>0.003263094862293859</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8516769750141</v>
+        <v>106.8648743595851</v>
       </c>
       <c r="E34" t="n">
-        <v>4.438699603257049</v>
+        <v>4.447223797690725</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.50687725991031</v>
+        <v>27.51003534244296</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9476745980549</v>
+        <v>115.9608714893748</v>
       </c>
       <c r="E35" t="n">
-        <v>4.438699603257049</v>
+        <v>4.447223797690725</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0879771302966</v>
+        <v>503.0875895466097</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3475.055044582148</v>
+        <v>3475.054189161693</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623147747787603</v>
+        <v>7.623140199695685</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>8.959495517687305</v>
+        <v>8.959814205396492</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0879771302966</v>
+        <v>518.0875895466097</v>
       </c>
       <c r="C42" t="n">
-        <v>6.751441680477578</v>
+        <v>6.752721512855514</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.831077811168</v>
+        <v>3457.817048307583</v>
       </c>
       <c r="E42" t="n">
-        <v>8.959495517687305</v>
+        <v>8.959814205396492</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980458901409007</v>
+        <v>8.98045000936972</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572030534025484</v>
+        <v>3.572026997164374</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944176</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.846367674041293</v>
+        <v>1.844494203599105</v>
       </c>
       <c r="C2" t="n">
-        <v>2.052508024155921</v>
+        <v>2.050294479935004</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8995666045206316</v>
+        <v>0.8996240401805969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2263263228815452</v>
+        <v>0.226614003605527</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.3585745054784</v>
+        <v>125.3834952640747</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.51556744113053</v>
+        <v>31.51786546627877</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.215870280521139</v>
+        <v>6.2159231568767</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.26571698107256</v>
+        <v>46.27244263604985</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.68907003346727</v>
+        <v>29.6931209748656</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8483186077051843</v>
+        <v>0.8483183867573657</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.12188115048485</v>
+        <v>12.12342454603814</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7408596580558772</v>
+        <v>0.7408401710818738</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.435493630019012</v>
+        <v>4.43633688374535</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7377032112906877</v>
+        <v>0.7376336618088468</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01927216710143157</v>
+        <v>0.0195602314007597</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03349129474921821</v>
+        <v>0.03387405816762706</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04037440104061852</v>
+        <v>0.0404519348993272</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04525476803517541</v>
+        <v>0.04534149972370705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921579491742505</v>
+        <v>0.8921613785566225</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39882.23072075502</v>
+        <v>39885.54563450799</v>
       </c>
       <c r="C2" t="n">
-        <v>40285.08153611618</v>
+        <v>40288.42993384646</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87397.01682306037</v>
+        <v>87403.21208758975</v>
       </c>
       <c r="C3" t="n">
-        <v>88279.81497278826</v>
+        <v>88286.07281574722</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33944.75267326765</v>
+        <v>33952.13034295592</v>
       </c>
       <c r="C4" t="n">
-        <v>34287.62896289662</v>
+        <v>34295.08115450093</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447.8047875815793</v>
+        <v>447.8556421544158</v>
       </c>
       <c r="C5" t="n">
-        <v>452.3280682642215</v>
+        <v>452.3794365196119</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29001.77573699633</v>
+        <v>29005.10885259813</v>
       </c>
       <c r="C6" t="n">
-        <v>29294.72296666296</v>
+        <v>29298.08975009912</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32482.79485792541</v>
+        <v>32488.01408095595</v>
       </c>
       <c r="C7" t="n">
-        <v>32810.90389689436</v>
+        <v>32816.17583934944</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.70080346458313</v>
+        <v>60.7058404240317</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.70673001784424</v>
+        <v>70.70161342438143</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.091582169177987</v>
+        <v>6.090741699261248</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25996.17048460474</v>
+        <v>25996.13822339674</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3218.527328856745</v>
+        <v>3219.473050078098</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16946.10570172474</v>
+        <v>16946.09544345672</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.824112364655</v>
+        <v>5906.818263697828</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.413071917855</v>
+        <v>4267.40884652079</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.79064715833</v>
+        <v>15840.77496233261</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29233.55516029759</v>
+        <v>29234.47512262933</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7980769444145974</v>
+        <v>0.7982355987623474</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.7307866279104</v>
+        <v>465.7370768965128</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.4052686518064</v>
+        <v>871.4123905961318</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.6779658106192</v>
+        <v>304.6804392469431</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.4853642045363</v>
+        <v>692.4880604704668</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.1995590221007</v>
+        <v>232.2020799991233</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.106361585404</v>
+        <v>614.1090668548565</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.2795393602467</v>
+        <v>231.2820529789936</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.119177541185</v>
+        <v>613.1218744114238</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3119804868514</v>
+        <v>171.3130928756741</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1497543463241</v>
+        <v>549.1509345169694</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.0954993748766</v>
+        <v>100.1014275118345</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.0082394271637</v>
+        <v>474.0144634851771</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.3838875196971</v>
+        <v>509.3919814636859</v>
       </c>
       <c r="C3" t="n">
-        <v>7.797747667948205</v>
+        <v>7.798296213624358</v>
       </c>
       <c r="D3" t="n">
-        <v>3424.995794758729</v>
+        <v>3425.011566889728</v>
       </c>
       <c r="E3" t="n">
-        <v>63.39049526161629</v>
+        <v>63.38708004026356</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.4364384574078</v>
+        <v>296.4387462794214</v>
       </c>
       <c r="C4" t="n">
-        <v>8.164991302774295</v>
+        <v>8.165259909325016</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.206266454909</v>
+        <v>2756.202194651267</v>
       </c>
       <c r="E4" t="n">
-        <v>63.39049526161629</v>
+        <v>63.38708004026356</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.8100064920548</v>
+        <v>294.813946145709</v>
       </c>
       <c r="C5" t="n">
-        <v>8.164991302774295</v>
+        <v>8.165259909325016</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.033994880974</v>
+        <v>1316.055789098503</v>
       </c>
       <c r="E5" t="n">
-        <v>63.39049526161629</v>
+        <v>63.38708004026356</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2103621446055</v>
+        <v>161.2112790163295</v>
       </c>
       <c r="C6" t="n">
-        <v>8.164991302774295</v>
+        <v>8.165259909325016</v>
       </c>
       <c r="D6" t="n">
-        <v>685.1340027219978</v>
+        <v>685.1381154059851</v>
       </c>
       <c r="E6" t="n">
-        <v>63.39049526161629</v>
+        <v>63.38708004026356</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.8570769726848</v>
+        <v>159.8579417155098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6159905212844294</v>
+        <v>0.6160040794711307</v>
       </c>
       <c r="D7" t="n">
-        <v>674.8525662873654</v>
+        <v>674.8563227885624</v>
       </c>
       <c r="E7" t="n">
-        <v>63.39049526161629</v>
+        <v>63.38708004026356</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.6778291257992</v>
+        <v>173.6750272105503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6096994622100473</v>
+        <v>0.6097415679189161</v>
       </c>
       <c r="D8" t="n">
-        <v>2790.842691226019</v>
+        <v>2790.835339718516</v>
       </c>
       <c r="E8" t="n">
-        <v>15.01038508789977</v>
+        <v>15.01127500334892</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.8570768464983</v>
+        <v>159.8579415893219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6159905212844294</v>
+        <v>0.6160040794711307</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.283980748843</v>
+        <v>2757.284933538823</v>
       </c>
       <c r="E9" t="n">
-        <v>15.01038508789977</v>
+        <v>15.01127500334892</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.7852678427476</v>
+        <v>155.7855572507752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6159905212844294</v>
+        <v>0.6160040794711307</v>
       </c>
       <c r="D10" t="n">
-        <v>657.2266362522147</v>
+        <v>657.2278953906325</v>
       </c>
       <c r="E10" t="n">
-        <v>78.40088034951607</v>
+        <v>78.39835504361247</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.7852678427476</v>
+        <v>155.7855572507752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6159905212844294</v>
+        <v>0.6160040794711307</v>
       </c>
       <c r="D11" t="n">
-        <v>657.2266362522147</v>
+        <v>657.2278953906325</v>
       </c>
       <c r="E11" t="n">
-        <v>94.54196280735694</v>
+        <v>94.5353149894971</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6159905212844294</v>
+        <v>0.6160040794711307</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6808777446561</v>
+        <v>251.6808891292167</v>
       </c>
       <c r="E12" t="n">
-        <v>94.53750499352851</v>
+        <v>94.53308759267665</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.016114241943</v>
+        <v>40.01751837648635</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>168.2108718250318</v>
+        <v>168.2167382330185</v>
       </c>
       <c r="E13" t="n">
-        <v>73.08644244261072</v>
+        <v>73.09374073853574</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.016114241943</v>
+        <v>40.01751837648635</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>168.2108718250318</v>
+        <v>168.2167382330185</v>
       </c>
       <c r="E14" t="n">
-        <v>73.08644244261072</v>
+        <v>73.09374073853574</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.12956975432388</v>
+        <v>64.14017478455156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02408263346930305</v>
+        <v>0.02409412675105059</v>
       </c>
       <c r="D15" t="n">
-        <v>268.4704841630827</v>
+        <v>268.5148975605119</v>
       </c>
       <c r="E15" t="n">
-        <v>59.26865831402962</v>
+        <v>59.26940498325527</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.31056587510022</v>
+        <v>42.31277883029247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02408263346930507</v>
+        <v>0.02409412675105146</v>
       </c>
       <c r="D16" t="n">
-        <v>177.2053747491479</v>
+        <v>177.2146347437137</v>
       </c>
       <c r="E16" t="n">
-        <v>59.26865831403079</v>
+        <v>59.26940498326159</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.93994413182511</v>
+        <v>52.94632325114846</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>221.6595460799518</v>
+        <v>221.6862554525586</v>
       </c>
       <c r="E19" t="n">
         <v>79.75288270042836</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.2133953650108</v>
+        <v>100.2274331432138</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09687790257259325</v>
+        <v>0.09686871224695054</v>
       </c>
       <c r="D20" t="n">
-        <v>2631.092302665158</v>
+        <v>2631.097625722244</v>
       </c>
       <c r="E20" t="n">
-        <v>33.32103043556712</v>
+        <v>33.30885531951241</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.30188230944708</v>
+        <v>97.29926794197294</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09203400744396359</v>
+        <v>0.09202527663460301</v>
       </c>
       <c r="D21" t="n">
-        <v>407.788807645344</v>
+        <v>407.777787603553</v>
       </c>
       <c r="E21" t="n">
-        <v>33.32103043556712</v>
+        <v>33.30885531951241</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.33228475400995</v>
+        <v>62.34219090858184</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9852762650397</v>
+        <v>261.0267533342322</v>
       </c>
       <c r="E22" t="n">
         <v>633.105534945255</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.92337884242547</v>
+        <v>38.92418242591518</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.27404279226761</v>
+        <v>65.28473045333629</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02535014049400322</v>
+        <v>0.02536223868531641</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.175649843015</v>
+        <v>2505.182057855124</v>
       </c>
       <c r="E25" t="n">
-        <v>25.94762787846043</v>
+        <v>25.96054966374534</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.5229626351704</v>
+        <v>506.5333920305683</v>
       </c>
       <c r="C26" t="n">
-        <v>7.191120590595053</v>
+        <v>7.191949069972662</v>
       </c>
       <c r="D26" t="n">
-        <v>3424.995794758729</v>
+        <v>3425.011566889728</v>
       </c>
       <c r="E26" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F26" t="n">
-        <v>6.805723658429173</v>
+        <v>6.805693637820511</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.9528090843337</v>
+        <v>187.9594597522041</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4599525334468729</v>
+        <v>0.4600094740212344</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.140712022152</v>
+        <v>2832.151769708935</v>
       </c>
       <c r="E27" t="n">
-        <v>58.07605735470725</v>
+        <v>58.08246573518329</v>
       </c>
       <c r="F27" t="n">
-        <v>7.047771162580083</v>
+        <v>7.047739584985084</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0431214953605</v>
+        <v>171.0418793854291</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5240738812915049</v>
+        <v>0.5241384251710791</v>
       </c>
       <c r="D28" t="n">
-        <v>2790.842691226019</v>
+        <v>2790.835339718516</v>
       </c>
       <c r="E28" t="n">
-        <v>15.01038508789977</v>
+        <v>15.01127500334892</v>
       </c>
       <c r="F28" t="n">
-        <v>6.898211744985128</v>
+        <v>6.898140496327551</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.0220807799386</v>
+        <v>184.0271687983102</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4599525334468729</v>
+        <v>0.4600094740212344</v>
       </c>
       <c r="D29" t="n">
-        <v>2823.65898579769</v>
+        <v>2823.66660686905</v>
       </c>
       <c r="E29" t="n">
-        <v>73.08644244260702</v>
+        <v>73.0937407385322</v>
       </c>
       <c r="F29" t="n">
-        <v>7.029297806225195</v>
+        <v>7.029258979719955</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.2133953650094</v>
+        <v>100.2274331432196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1021927853776917</v>
+        <v>0.1022439245664476</v>
       </c>
       <c r="D30" t="n">
-        <v>2631.092302665158</v>
+        <v>2631.097625722244</v>
       </c>
       <c r="E30" t="n">
-        <v>73.08644244260702</v>
+        <v>73.0937407385322</v>
       </c>
       <c r="F30" t="n">
-        <v>7.231534779191852</v>
+        <v>7.231326251011252</v>
       </c>
       <c r="G30" t="n">
-        <v>98.01341587063358</v>
+        <v>98.01263804765593</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.27404279226482</v>
+        <v>65.28473045333857</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0253501404940038</v>
+        <v>0.02536223868531665</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.17564984302</v>
+        <v>2505.182057855129</v>
       </c>
       <c r="E31" t="n">
-        <v>39.76541200703783</v>
+        <v>39.78488541902227</v>
       </c>
       <c r="F31" t="n">
-        <v>7.492059876115693</v>
+        <v>7.491870507511793</v>
       </c>
       <c r="G31" t="n">
-        <v>95.18909314703606</v>
+        <v>95.18852589948582</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.27404279226482</v>
+        <v>65.28473045333857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0253501404940038</v>
+        <v>0.02536223868531665</v>
       </c>
       <c r="D32" t="n">
-        <v>2505.17564984302</v>
+        <v>2505.182057855129</v>
       </c>
       <c r="E32" t="n">
-        <v>13.81778412857993</v>
+        <v>13.82433575527415</v>
       </c>
       <c r="F32" t="n">
-        <v>7.492059876115693</v>
+        <v>7.491870507511793</v>
       </c>
       <c r="G32" t="n">
-        <v>95.18909314703606</v>
+        <v>95.18852589948582</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.75648302554009</v>
+        <v>28.75866355236661</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003953056777546557</v>
+        <v>0.003953556255987308</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.246942731588</v>
+        <v>2407.182198278406</v>
       </c>
       <c r="E33" t="n">
-        <v>13.81778412857993</v>
+        <v>13.82433575527415</v>
       </c>
       <c r="F33" t="n">
-        <v>7.993810002735936</v>
+        <v>7.993540846002172</v>
       </c>
       <c r="G33" t="n">
-        <v>93.99640785925685</v>
+        <v>93.99357182711009</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.75648302554009</v>
+        <v>28.75866355236661</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003953056777546557</v>
+        <v>0.003953556255987308</v>
       </c>
       <c r="D34" t="n">
-        <v>120.535532385163</v>
+        <v>120.5446482352086</v>
       </c>
       <c r="E34" t="n">
-        <v>13.81778412857993</v>
+        <v>13.82433575527415</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.78159732996988</v>
+        <v>30.78377897844888</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>129.6307264447481</v>
+        <v>129.6398415393449</v>
       </c>
       <c r="E35" t="n">
-        <v>13.81778412857993</v>
+        <v>13.82433575527415</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0879771302966</v>
+        <v>503.0875895466097</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3475.055044582148</v>
+        <v>3475.054189161693</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623147747787603</v>
+        <v>7.623140199695685</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0879771302966</v>
+        <v>518.0875895466097</v>
       </c>
       <c r="C42" t="n">
-        <v>6.751441680477578</v>
+        <v>6.752721512855514</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.831077811168</v>
+        <v>3457.817048307583</v>
       </c>
       <c r="E42" t="n">
-        <v>8.959495517687305</v>
+        <v>8.959814205396492</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>447.9159720137933</v>
+        <v>447.8581145723125</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.20770364197185</v>
+        <v>10.20771869986286</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>544.9820324004952</v>
+        <v>544.9828577278158</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>967.3450886135182</v>
+        <v>967.3467299705791</v>
       </c>
       <c r="E5" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.1750691236712</v>
+        <v>468.1742791709365</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>879.4028318066047</v>
+        <v>879.4026033655963</v>
       </c>
       <c r="E6" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.8561377973954</v>
+        <v>294.8417409550444</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.6905195922814</v>
+        <v>686.6754607417332</v>
       </c>
       <c r="E7" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.6215695437352</v>
+        <v>225.6147965458771</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.8306444605051</v>
+        <v>611.8239848375896</v>
       </c>
       <c r="E8" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.7015391581304</v>
+        <v>224.6947639290396</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.8431830814964</v>
+        <v>610.8365222049061</v>
       </c>
       <c r="E9" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.7707184406231</v>
+        <v>164.7632616016621</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.8908241291646</v>
+        <v>546.8835070205027</v>
       </c>
       <c r="E10" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.93284952942072</v>
+        <v>96.93289596606107</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.2591281851035</v>
+        <v>475.2597609088586</v>
       </c>
       <c r="E11" t="n">
-        <v>458.1236756557652</v>
+        <v>458.0658332721754</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787039248575968</v>
+        <v>0.7787037210677999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211060048107835</v>
+        <v>0.1211056736047278</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03147846946088822</v>
+        <v>0.03147864546639314</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06216273573368948</v>
+        <v>0.06216308848484688</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548865137042044</v>
+        <v>0.006548871376232219</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.675974592610364</v>
+        <v>9.675988866121422</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5317290493614976</v>
+        <v>0.5317298337414474</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572026997164374</v>
+        <v>3.572031300327784</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944179</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -1158,7 +1158,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6517328115979669</v>
+        <v>0.6517797682225224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.682330494724297</v>
+        <v>0.6823740723682045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9551570926949507</v>
+        <v>0.9551649082452629</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.8746654405717</v>
+        <v>54.8658809110041</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.43475885552112</v>
+        <v>34.43121449199162</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484488108332002</v>
+        <v>0.8484485936232183</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.07558718222797</v>
+        <v>14.07414526219044</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.718497166948862</v>
+        <v>0.7183414455794624</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.009536440064274</v>
+        <v>5.007266674858402</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.5881354811225404</v>
+        <v>0.588160616055409</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.354782962758343</v>
+        <v>1.353254481963647</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3928503820687028</v>
+        <v>0.3926529206240315</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1257350059955007</v>
+        <v>0.125678816909071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1402319897411545</v>
+        <v>0.1401698536741587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8966214215999299</v>
+        <v>0.8966180217411526</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42394.04577581502</v>
+        <v>42394.7137008465</v>
       </c>
       <c r="C2" t="n">
-        <v>42822.26846041922</v>
+        <v>42822.94313216818</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91296.45809986313</v>
+        <v>91296.77975421166</v>
       </c>
       <c r="C3" t="n">
-        <v>92218.64454531629</v>
+        <v>92218.96944869864</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39993.02108053888</v>
+        <v>39994.3627292602</v>
       </c>
       <c r="C4" t="n">
-        <v>40396.99099044331</v>
+        <v>40398.34619117191</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.7167023905959</v>
+        <v>503.7126146798836</v>
       </c>
       <c r="C5" t="n">
-        <v>508.8047498894908</v>
+        <v>508.8006208887713</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32641.28600946029</v>
+        <v>32639.42997554762</v>
       </c>
       <c r="C6" t="n">
-        <v>32970.99596915181</v>
+        <v>32969.12118742184</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38338.5181574121</v>
+        <v>38338.24915892787</v>
       </c>
       <c r="C7" t="n">
-        <v>38725.77591657788</v>
+        <v>38725.50420093725</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.31567642872825</v>
+        <v>73.34036546522846</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.07675838839799</v>
+        <v>62.05408131179122</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.3571991294476</v>
+        <v>5.355187169554188</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.0896322434726</v>
+        <v>518.0958056876718</v>
       </c>
       <c r="C3" t="n">
-        <v>6.752518678240014</v>
+        <v>6.751084825956555</v>
       </c>
       <c r="D3" t="n">
-        <v>3457.82680999786</v>
+        <v>3457.857738440101</v>
       </c>
       <c r="E3" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.9196150965472</v>
+        <v>286.9055037897912</v>
       </c>
       <c r="C4" t="n">
-        <v>7.113537271156903</v>
+        <v>7.112059551668764</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.141417002396</v>
+        <v>2771.160948240323</v>
       </c>
       <c r="E4" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.5984760598151</v>
+        <v>285.5855518968708</v>
       </c>
       <c r="C5" t="n">
-        <v>7.113537271156903</v>
+        <v>7.112059551668764</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.334143217788</v>
+        <v>1266.265497745892</v>
       </c>
       <c r="E5" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.5794093876125</v>
+        <v>160.5802692339043</v>
       </c>
       <c r="C6" t="n">
-        <v>7.113537271156903</v>
+        <v>7.112059551668764</v>
       </c>
       <c r="D6" t="n">
-        <v>681.7913878755123</v>
+        <v>681.7942243982033</v>
       </c>
       <c r="E6" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.132480071729</v>
+        <v>154.1257521620141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.531302021331378</v>
+        <v>0.5312082847006244</v>
       </c>
       <c r="D7" t="n">
-        <v>650.0349157586303</v>
+        <v>650.0058062608714</v>
       </c>
       <c r="E7" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.326984104087</v>
+        <v>168.3200676509737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5249529508973817</v>
+        <v>0.5248633487146864</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.556192949853</v>
+        <v>2784.547230725726</v>
       </c>
       <c r="E8" t="n">
-        <v>13.26950623983838</v>
+        <v>13.26839977972536</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.1324799568328</v>
+        <v>154.1257520471302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.531302021331378</v>
+        <v>0.5312082847006244</v>
       </c>
       <c r="D9" t="n">
-        <v>2750.806587907505</v>
+        <v>2750.798778640767</v>
       </c>
       <c r="E9" t="n">
-        <v>13.26950623983838</v>
+        <v>13.26839977972536</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.4727041974269</v>
+        <v>150.4646418655145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.531302021331378</v>
+        <v>0.5312082847006244</v>
       </c>
       <c r="D10" t="n">
-        <v>634.249640785721</v>
+        <v>634.2148493142024</v>
       </c>
       <c r="E10" t="n">
-        <v>71.35197197502167</v>
+        <v>71.34469905908344</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.4727041974269</v>
+        <v>150.4646418655145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.531302021331378</v>
+        <v>0.5312082847006244</v>
       </c>
       <c r="D11" t="n">
-        <v>634.249640785721</v>
+        <v>634.2148493142024</v>
       </c>
       <c r="E11" t="n">
-        <v>84.90493771723132</v>
+        <v>84.89249726589163</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.531302021331378</v>
+        <v>0.5312082847006244</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6097652975839</v>
+        <v>251.6096865866116</v>
       </c>
       <c r="E12" t="n">
-        <v>84.90333970404497</v>
+        <v>84.89379362078294</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.58352134195042</v>
+        <v>42.58684600226906</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>178.9377826130604</v>
+        <v>178.9516740133996</v>
       </c>
       <c r="E13" t="n">
-        <v>71.35694885449313</v>
+        <v>71.34363258067803</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.96007961311398</v>
+        <v>41.96376901772288</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.3328913790474</v>
+        <v>176.3483064377017</v>
       </c>
       <c r="E14" t="n">
-        <v>62.39713464909664</v>
+        <v>62.38407282028419</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.59195709525943</v>
+        <v>68.59831315445024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02934919662032163</v>
+        <v>0.02935734168379782</v>
       </c>
       <c r="D15" t="n">
-        <v>287.1642377773552</v>
+        <v>287.190872630285</v>
       </c>
       <c r="E15" t="n">
-        <v>57.95943725602424</v>
+        <v>57.96057329090758</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.20914383775607</v>
+        <v>43.21021212791891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02933909678843993</v>
+        <v>0.02934616258034145</v>
       </c>
       <c r="D16" t="n">
-        <v>180.9659939951405</v>
+        <v>180.9704656506086</v>
       </c>
       <c r="E16" t="n">
-        <v>57.94991085140591</v>
+        <v>57.94997085531105</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>618.4802489735829</v>
+        <v>618.4835634758365</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>77.91052206357206</v>
+        <v>77.91093959444939</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.57436943125148</v>
+        <v>55.57756705665709</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>232.6898848086499</v>
+        <v>232.7032732662232</v>
       </c>
       <c r="E19" t="n">
-        <v>77.91052206357206</v>
+        <v>77.91093959444939</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.47209584236225</v>
+        <v>97.46832225333611</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09259034588656145</v>
+        <v>0.09258525302190899</v>
       </c>
       <c r="D20" t="n">
-        <v>2644.477468759776</v>
+        <v>2644.491206165393</v>
       </c>
       <c r="E20" t="n">
-        <v>27.35104965175653</v>
+        <v>27.34403213876319</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.05916715947401</v>
+        <v>96.05766287864547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08796082859223338</v>
+        <v>0.08795599037081354</v>
       </c>
       <c r="D21" t="n">
-        <v>402.5514179470555</v>
+        <v>402.5450792605695</v>
       </c>
       <c r="E21" t="n">
-        <v>27.35104965175653</v>
+        <v>27.34403213876319</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.55762116553493</v>
+        <v>66.56355155264124</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>278.6767598200947</v>
+        <v>278.7015903509089</v>
       </c>
       <c r="E22" t="n">
-        <v>618.4802489735829</v>
+        <v>618.4835634758365</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>618.4802489735829</v>
+        <v>618.4835634758365</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.25523980444716</v>
+        <v>39.25564261224116</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>618.4802489735829</v>
+        <v>618.4835634758365</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.77150652152164</v>
+        <v>69.77791298078978</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03089389117928593</v>
+        <v>0.03090246493031349</v>
       </c>
       <c r="D25" t="n">
-        <v>2517.862452331494</v>
+        <v>2517.897890238922</v>
       </c>
       <c r="E25" t="n">
-        <v>30.59964992151839</v>
+        <v>30.60689215028177</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>515.3273259537368</v>
+        <v>515.3338378981492</v>
       </c>
       <c r="C26" t="n">
-        <v>6.151020686331583</v>
+        <v>6.149610595988951</v>
       </c>
       <c r="D26" t="n">
-        <v>3457.82680999786</v>
+        <v>3457.857738440101</v>
       </c>
       <c r="E26" t="n">
-        <v>49.12743521052635</v>
+        <v>49.115652142919</v>
       </c>
       <c r="F26" t="n">
-        <v>6.916132364802968</v>
+        <v>6.916272692883199</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.3519589651538</v>
+        <v>196.3612302919015</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3971200616917617</v>
+        <v>0.3970428175141383</v>
       </c>
       <c r="D27" t="n">
-        <v>2853.416650020622</v>
+        <v>2853.440142312425</v>
       </c>
       <c r="E27" t="n">
-        <v>49.12743521052635</v>
+        <v>49.115652142919</v>
       </c>
       <c r="F27" t="n">
-        <v>7.159628547376841</v>
+        <v>7.159766407271431</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.8001303692289</v>
+        <v>165.7933189137904</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4472305345081555</v>
+        <v>0.4471449338888077</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.556192949853</v>
+        <v>2784.547230725726</v>
       </c>
       <c r="E28" t="n">
-        <v>13.26950623983838</v>
+        <v>13.26839977972536</v>
       </c>
       <c r="F28" t="n">
-        <v>6.954551629422232</v>
+        <v>6.954616593472591</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.4047263148635</v>
+        <v>189.4096967048516</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3971200616917617</v>
+        <v>0.3970428175141383</v>
       </c>
       <c r="D29" t="n">
-        <v>2838.772594662467</v>
+        <v>2838.787379871551</v>
       </c>
       <c r="E29" t="n">
-        <v>62.39694145036473</v>
+        <v>62.38405192264436</v>
       </c>
       <c r="F29" t="n">
-        <v>7.128204623490137</v>
+        <v>7.128324278854932</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.47204434946178</v>
+        <v>97.46845343880835</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09260372165867069</v>
+        <v>0.09259166889760594</v>
       </c>
       <c r="D30" t="n">
-        <v>2644.477421465845</v>
+        <v>2644.491326787494</v>
       </c>
       <c r="E30" t="n">
-        <v>62.39694145036473</v>
+        <v>62.38405192264436</v>
       </c>
       <c r="F30" t="n">
-        <v>7.311593895129753</v>
+        <v>7.311689902207426</v>
       </c>
       <c r="G30" t="n">
-        <v>98.80310431200458</v>
+        <v>98.80397626563168</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.77011237409653</v>
+        <v>69.77876418623833</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0308920256612548</v>
+        <v>0.03090360424821221</v>
       </c>
       <c r="D31" t="n">
-        <v>2517.859350001606</v>
+        <v>2517.89967276443</v>
       </c>
       <c r="E31" t="n">
-        <v>35.03715411585888</v>
+        <v>35.03037078201855</v>
       </c>
       <c r="F31" t="n">
-        <v>7.442925763751975</v>
+        <v>7.442879561496459</v>
       </c>
       <c r="G31" t="n">
-        <v>95.37865231449334</v>
+        <v>95.37970345857552</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.75247916759793</v>
+        <v>42.70262851838464</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008539750471102572</v>
+        <v>0.008517527519787179</v>
       </c>
       <c r="D32" t="n">
-        <v>2517.859350001606</v>
+        <v>2517.89967276443</v>
       </c>
       <c r="E32" t="n">
-        <v>4.447223797690725</v>
+        <v>4.434101964973134</v>
       </c>
       <c r="F32" t="n">
-        <v>8.012595206820167</v>
+        <v>8.013891497016592</v>
       </c>
       <c r="G32" t="n">
-        <v>97.47581466298473</v>
+        <v>97.4813244177187</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.48680274261613</v>
+        <v>25.48195142155254</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003263094862293859</v>
+        <v>0.003262154753555945</v>
       </c>
       <c r="D33" t="n">
-        <v>2513.461048434027</v>
+        <v>2513.588190806483</v>
       </c>
       <c r="E33" t="n">
-        <v>4.447223797690725</v>
+        <v>4.434101964973134</v>
       </c>
       <c r="F33" t="n">
-        <v>8.432652172296113</v>
+        <v>8.433208838660722</v>
       </c>
       <c r="G33" t="n">
-        <v>98.60988964220037</v>
+        <v>98.61546573875238</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.48680274261613</v>
+        <v>25.48195142155254</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003263094862293859</v>
+        <v>0.003262154753555945</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8648743595851</v>
+        <v>106.8445881569512</v>
       </c>
       <c r="E34" t="n">
-        <v>4.447223797690725</v>
+        <v>4.434101964973134</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.51003534244296</v>
+        <v>27.50518093462597</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9608714893748</v>
+        <v>115.9405860486683</v>
       </c>
       <c r="E35" t="n">
-        <v>4.447223797690725</v>
+        <v>4.434101964973134</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0875895466097</v>
+        <v>503.0873171300765</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3475.054189161693</v>
+        <v>3475.053587922084</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623140199695685</v>
+        <v>7.623149383169943</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>8.959814205396492</v>
+        <v>8.959559760393846</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0875895466097</v>
+        <v>518.0873171300765</v>
       </c>
       <c r="C42" t="n">
-        <v>6.752721512855514</v>
+        <v>6.751677526472776</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.817048307583</v>
+        <v>3457.826905747275</v>
       </c>
       <c r="E42" t="n">
-        <v>8.959814205396492</v>
+        <v>8.959559760393846</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.98045000936972</v>
+        <v>8.980460827973252</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572026997164374</v>
+        <v>3.572031300327784</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944179</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -3415,7 +3415,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.844494203599105</v>
+        <v>1.84615368536106</v>
       </c>
       <c r="C2" t="n">
-        <v>2.050294479935004</v>
+        <v>2.052315383226337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8996240401805969</v>
+        <v>0.8995467755344787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.226614003605527</v>
+        <v>0.2263371682396819</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.3834952640747</v>
+        <v>125.3563262127858</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.51786546627877</v>
+        <v>31.51536013083103</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.2159231568767</v>
+        <v>6.215865510139717</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.27244263604985</v>
+        <v>46.26100959338557</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.6931209748656</v>
+        <v>29.68636440046624</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8483183867573657</v>
+        <v>0.8483189109555317</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.12342454603814</v>
+        <v>12.1209750639607</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7408401710818738</v>
+        <v>0.7408676595757955</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.43633688374535</v>
+        <v>4.434552578336948</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7376336618088468</v>
+        <v>0.7377980365975727</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0195602314007597</v>
+        <v>0.01911755062168037</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03387405816762706</v>
+        <v>0.03328480537407389</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0404519348993272</v>
+        <v>0.0403325821250543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04534149972370705</v>
+        <v>0.04520798787827403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921613785566225</v>
+        <v>0.8921560993524611</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39885.54563450799</v>
+        <v>39881.35763835807</v>
       </c>
       <c r="C2" t="n">
-        <v>40288.42993384646</v>
+        <v>40284.19963470512</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87403.21208758975</v>
+        <v>87398.90198836356</v>
       </c>
       <c r="C3" t="n">
-        <v>88286.07281574722</v>
+        <v>88281.71918016522</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33952.13034295592</v>
+        <v>33944.03464486687</v>
       </c>
       <c r="C4" t="n">
-        <v>34295.08115450093</v>
+        <v>34286.90368168371</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447.8556421544158</v>
+        <v>447.7996647286259</v>
       </c>
       <c r="C5" t="n">
-        <v>452.3794365196119</v>
+        <v>452.3228936652787</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29005.10885259813</v>
+        <v>29001.74427880471</v>
       </c>
       <c r="C6" t="n">
-        <v>29298.08975009912</v>
+        <v>29294.69119071183</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32488.01408095595</v>
+        <v>32480.30703525796</v>
       </c>
       <c r="C7" t="n">
-        <v>32816.17583934944</v>
+        <v>32808.39094470501</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.7058404240317</v>
+        <v>60.69080847798653</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.70161342438143</v>
+        <v>70.71630648981274</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.090741699261248</v>
+        <v>6.091817447511135</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25996.13822339674</v>
+        <v>25996.16495718654</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3219.473050078098</v>
+        <v>3218.70495598804</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16946.09544345672</v>
+        <v>16946.1204414844</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.818263697828</v>
+        <v>5906.825379546684</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.40884652079</v>
+        <v>4267.413987399517</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.77496233261</v>
+        <v>15840.79404545916</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29234.47512262933</v>
+        <v>29233.7383683934</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7982355987623474</v>
+        <v>0.7980626309895336</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.7370768965128</v>
+        <v>465.7359207482094</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.4123905961318</v>
+        <v>871.4110815854503</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.6804392469431</v>
+        <v>304.6786601316864</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.4880604704668</v>
+        <v>692.4861210761973</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.2020799991233</v>
+        <v>232.1978224597236</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.1090668548565</v>
+        <v>614.104498074916</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.2820529789936</v>
+        <v>231.2778021122862</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.1218744114238</v>
+        <v>613.1173136426474</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3130928756741</v>
+        <v>171.3122226210367</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1509345169694</v>
+        <v>549.1500112345909</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.1014275118345</v>
+        <v>100.1010502495319</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.0144634851771</v>
+        <v>474.0140673905406</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.3919814636859</v>
+        <v>509.3914930715299</v>
       </c>
       <c r="C3" t="n">
-        <v>7.798296213624358</v>
+        <v>7.797874942327402</v>
       </c>
       <c r="D3" t="n">
-        <v>3425.011566889728</v>
+        <v>3425.012938071144</v>
       </c>
       <c r="E3" t="n">
-        <v>63.38708004026356</v>
+        <v>63.39341013226964</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.4387462794214</v>
+        <v>296.4369225652893</v>
       </c>
       <c r="C4" t="n">
-        <v>8.165259909325016</v>
+        <v>8.165047647349928</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.202194651267</v>
+        <v>2756.205412338699</v>
       </c>
       <c r="E4" t="n">
-        <v>63.38708004026356</v>
+        <v>63.39341013226964</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.813946145709</v>
+        <v>294.8091049625575</v>
       </c>
       <c r="C5" t="n">
-        <v>8.165259909325016</v>
+        <v>8.165047647349928</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.055789098503</v>
+        <v>1316.028888488459</v>
       </c>
       <c r="E5" t="n">
-        <v>63.38708004026356</v>
+        <v>63.39341013226964</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2112790163295</v>
+        <v>161.2109915646628</v>
       </c>
       <c r="C6" t="n">
-        <v>8.165259909325016</v>
+        <v>8.165047647349928</v>
       </c>
       <c r="D6" t="n">
-        <v>685.1381154059851</v>
+        <v>685.1367504322915</v>
       </c>
       <c r="E6" t="n">
-        <v>63.38708004026356</v>
+        <v>63.39341013226964</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.8579417155098</v>
+        <v>159.8576933280149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6160040794711307</v>
+        <v>0.6160001850126078</v>
       </c>
       <c r="D7" t="n">
-        <v>674.8563227885624</v>
+        <v>674.8552437762748</v>
       </c>
       <c r="E7" t="n">
-        <v>63.38708004026356</v>
+        <v>63.39341013226964</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.6750272105503</v>
+        <v>173.6767415929104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6097415679189161</v>
+        <v>0.609705167604859</v>
       </c>
       <c r="D8" t="n">
-        <v>2790.835339718516</v>
+        <v>2790.8395754189</v>
       </c>
       <c r="E8" t="n">
-        <v>15.01127500334892</v>
+        <v>15.01040450175415</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.8579415893219</v>
+        <v>159.8576932018272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6160040794711307</v>
+        <v>0.6160001850126078</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.284933538823</v>
+        <v>2757.284659861595</v>
       </c>
       <c r="E9" t="n">
-        <v>15.01127500334892</v>
+        <v>15.01040450175415</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.7855572507752</v>
+        <v>155.7847227276602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6160040794711307</v>
+        <v>0.6160001850126078</v>
       </c>
       <c r="D10" t="n">
-        <v>657.2278953906325</v>
+        <v>657.2242856367528</v>
       </c>
       <c r="E10" t="n">
-        <v>78.39835504361247</v>
+        <v>78.40381463402379</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.7855572507752</v>
+        <v>155.7847227276602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6160040794711307</v>
+        <v>0.6160001850126078</v>
       </c>
       <c r="D11" t="n">
-        <v>657.2278953906325</v>
+        <v>657.2242856367528</v>
       </c>
       <c r="E11" t="n">
-        <v>94.5353149894971</v>
+        <v>94.53550315196608</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6160040794711307</v>
+        <v>0.6160001850126078</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6808891292167</v>
+        <v>251.6808858591434</v>
       </c>
       <c r="E12" t="n">
-        <v>94.53308759267665</v>
+        <v>94.54084541469085</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.01751837648635</v>
+        <v>40.01618120998944</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>168.2167382330185</v>
+        <v>168.2111516144004</v>
       </c>
       <c r="E13" t="n">
-        <v>73.09374073853574</v>
+        <v>73.08670378111839</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.01751837648635</v>
+        <v>40.01618120998944</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>168.2167382330185</v>
+        <v>168.2111516144004</v>
       </c>
       <c r="E14" t="n">
-        <v>73.09374073853574</v>
+        <v>73.08670378111839</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.14017478455156</v>
+        <v>64.13020420779543</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02409412675105059</v>
+        <v>0.02408332093212453</v>
       </c>
       <c r="D15" t="n">
-        <v>268.5148975605119</v>
+        <v>268.4731412244664</v>
       </c>
       <c r="E15" t="n">
-        <v>59.26940498325527</v>
+        <v>59.26854699071546</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.31277883029247</v>
+        <v>42.31067849927962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02409412675105146</v>
+        <v>0.02408332093212267</v>
       </c>
       <c r="D16" t="n">
-        <v>177.2146347437137</v>
+        <v>177.2058461093757</v>
       </c>
       <c r="E16" t="n">
-        <v>59.26940498326159</v>
+        <v>59.26854699072565</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.94632325114846</v>
+        <v>52.94029807194308</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>221.6862554525586</v>
+        <v>221.6610280272257</v>
       </c>
       <c r="E19" t="n">
         <v>79.75288270042836</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.2274331432138</v>
+        <v>100.2142187640184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09686871224695054</v>
+        <v>0.096877351848335</v>
       </c>
       <c r="D20" t="n">
-        <v>2631.097625722244</v>
+        <v>2631.098922936355</v>
       </c>
       <c r="E20" t="n">
-        <v>33.30885531951241</v>
+        <v>33.32020790526877</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.29926794197294</v>
+        <v>97.30172596870641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09202527663460301</v>
+        <v>0.09203348425591824</v>
       </c>
       <c r="D21" t="n">
-        <v>407.777787603553</v>
+        <v>407.7881486392236</v>
       </c>
       <c r="E21" t="n">
-        <v>33.30885531951241</v>
+        <v>33.32020790526877</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.34219090858184</v>
+        <v>62.33287714798608</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0267533342322</v>
+        <v>260.9877566186178</v>
       </c>
       <c r="E22" t="n">
         <v>633.105534945255</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.92418242591518</v>
+        <v>38.92342342858552</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.28473045333629</v>
+        <v>65.27468218908763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02536223868531641</v>
+        <v>0.02535086413907845</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.182057855124</v>
+        <v>2505.182204236977</v>
       </c>
       <c r="E25" t="n">
-        <v>25.96054966374534</v>
+        <v>25.94833908544971</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.5333920305683</v>
+        <v>506.5303561283058</v>
       </c>
       <c r="C26" t="n">
-        <v>7.191949069972662</v>
+        <v>7.191190807108843</v>
       </c>
       <c r="D26" t="n">
-        <v>3425.011566889728</v>
+        <v>3425.012938071144</v>
       </c>
       <c r="E26" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F26" t="n">
-        <v>6.805693637820511</v>
+        <v>6.8057413870815</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.9594597522041</v>
+        <v>187.9578027341868</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4600094740212344</v>
+        <v>0.4599567003352925</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.151769708935</v>
+        <v>2832.15122134276</v>
       </c>
       <c r="E27" t="n">
-        <v>58.08246573518329</v>
+        <v>58.07629927935808</v>
       </c>
       <c r="F27" t="n">
-        <v>7.047739584985084</v>
+        <v>7.047789888185507</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0418793854291</v>
+        <v>171.0418797071613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5241384251710791</v>
+        <v>0.5240782140441987</v>
       </c>
       <c r="D28" t="n">
-        <v>2790.835339718516</v>
+        <v>2790.8395754189</v>
       </c>
       <c r="E28" t="n">
-        <v>15.01127500334892</v>
+        <v>15.01040450175415</v>
       </c>
       <c r="F28" t="n">
-        <v>6.898140496327551</v>
+        <v>6.898201058386428</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.0271687983102</v>
+        <v>184.0257683825703</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4600094740212344</v>
+        <v>0.4599567003352925</v>
       </c>
       <c r="D29" t="n">
-        <v>2823.66660686905</v>
+        <v>2823.666716174658</v>
       </c>
       <c r="E29" t="n">
-        <v>73.0937407385322</v>
+        <v>73.08670378111223</v>
       </c>
       <c r="F29" t="n">
-        <v>7.029258979719955</v>
+        <v>7.029310653828985</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.2274331432196</v>
+        <v>100.2142187640247</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1022439245664476</v>
+        <v>0.1021957844099119</v>
       </c>
       <c r="D30" t="n">
-        <v>2631.097625722244</v>
+        <v>2631.098922936354</v>
       </c>
       <c r="E30" t="n">
-        <v>73.0937407385322</v>
+        <v>73.08670378111223</v>
       </c>
       <c r="F30" t="n">
-        <v>7.231326251011252</v>
+        <v>7.231539442324827</v>
       </c>
       <c r="G30" t="n">
-        <v>98.01263804765593</v>
+        <v>98.01364987800662</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.28473045333857</v>
+        <v>65.27468218908001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02536223868531665</v>
+        <v>0.02535086413907708</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.182057855129</v>
+        <v>2505.182204236989</v>
       </c>
       <c r="E31" t="n">
-        <v>39.78488541902227</v>
+        <v>39.76649587584648</v>
       </c>
       <c r="F31" t="n">
-        <v>7.491870507511793</v>
+        <v>7.49206678112736</v>
       </c>
       <c r="G31" t="n">
-        <v>95.18852589948582</v>
+        <v>95.18932240023929</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.28473045333857</v>
+        <v>65.27468218908001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02536223868531665</v>
+        <v>0.02535086413907708</v>
       </c>
       <c r="D32" t="n">
-        <v>2505.182057855129</v>
+        <v>2505.182204236989</v>
       </c>
       <c r="E32" t="n">
-        <v>13.82433575527415</v>
+        <v>13.81815679039274</v>
       </c>
       <c r="F32" t="n">
-        <v>7.491870507511793</v>
+        <v>7.49206678112736</v>
       </c>
       <c r="G32" t="n">
-        <v>95.18852589948582</v>
+        <v>95.18932240023929</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.75866355236661</v>
+        <v>28.75661962994042</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003953556255987308</v>
+        <v>0.003953088066972627</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.182198278406</v>
+        <v>2407.249136716398</v>
       </c>
       <c r="E33" t="n">
-        <v>13.82433575527415</v>
+        <v>13.81815679039274</v>
       </c>
       <c r="F33" t="n">
-        <v>7.993540846002172</v>
+        <v>7.993813842596849</v>
       </c>
       <c r="G33" t="n">
-        <v>93.99357182711009</v>
+        <v>93.9964871012664</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.75866355236661</v>
+        <v>28.75661962994042</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003953556255987308</v>
+        <v>0.003953088066972627</v>
       </c>
       <c r="D34" t="n">
-        <v>120.5446482352086</v>
+        <v>120.5361034697913</v>
       </c>
       <c r="E34" t="n">
-        <v>13.82433575527415</v>
+        <v>13.81815679039274</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.78377897844888</v>
+        <v>30.78173400479426</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>129.6398415393449</v>
+        <v>129.6312974826752</v>
       </c>
       <c r="E35" t="n">
-        <v>13.82433575527415</v>
+        <v>13.81815679039274</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0875895466097</v>
+        <v>503.0873171300765</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3475.054189161693</v>
+        <v>3475.053587922084</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623140199695685</v>
+        <v>7.623149383169943</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0875895466097</v>
+        <v>518.0873171300765</v>
       </c>
       <c r="C42" t="n">
-        <v>6.752721512855514</v>
+        <v>6.751677526472776</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.817048307583</v>
+        <v>3457.826905747275</v>
       </c>
       <c r="E42" t="n">
-        <v>8.959814205396492</v>
+        <v>8.959559760393846</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>447.8581145723125</v>
+        <v>447.8315785849383</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.20771869986286</v>
+        <v>10.2076379174678</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>544.9828577278158</v>
+        <v>544.983182057761</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>967.3467299705791</v>
+        <v>967.3473749770779</v>
       </c>
       <c r="E5" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.1742791709365</v>
+        <v>468.1732076132722</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>879.4026033655963</v>
+        <v>879.401649817166</v>
       </c>
       <c r="E6" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.8417409550444</v>
+        <v>294.8359162598572</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.6754607417332</v>
+        <v>686.6693609555787</v>
       </c>
       <c r="E7" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.6147965458771</v>
+        <v>225.6101877720946</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.8239848375896</v>
+        <v>611.819277716769</v>
       </c>
       <c r="E8" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.6947639290396</v>
+        <v>224.6901511209988</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.8365222049061</v>
+        <v>610.8318115885789</v>
       </c>
       <c r="E9" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.7632616016621</v>
+        <v>164.7566719544313</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.8835070205027</v>
+        <v>546.8767476476451</v>
       </c>
       <c r="E10" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.93289596606107</v>
+        <v>96.92966012981923</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.2597609088586</v>
+        <v>475.2565894222805</v>
       </c>
       <c r="E11" t="n">
-        <v>458.0658332721754</v>
+        <v>458.0392165024061</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787037210677999</v>
+        <v>0.7787036409842313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211056736047278</v>
+        <v>0.1211055434502093</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03147864546639314</v>
+        <v>0.03147871463152871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06216308848484688</v>
+        <v>0.06216322710597486</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548871376232219</v>
+        <v>0.006548873828055727</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.675988866121422</v>
+        <v>9.675912291758614</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5317298337414474</v>
+        <v>0.5317256257091968</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572031300327784</v>
+        <v>3.572042579292407</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944179</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6517797682225224</v>
+        <v>0.6942386286959729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6823740723682045</v>
+        <v>0.7118678368169729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9551649082452629</v>
+        <v>0.975235279346477</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.8658809110041</v>
+        <v>61.21043365690034</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.43121449199162</v>
+        <v>37.23305206467435</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484485936232183</v>
+        <v>0.8485895075388394</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.07414526219044</v>
+        <v>14.40117088523473</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7183414455794624</v>
+        <v>0.7882690952950118</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.007266674858402</v>
+        <v>6.765083004041506</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.588160616055409</v>
+        <v>0.5880855372860668</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.353254481963647</v>
+        <v>2.811127702949744</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3926529206240315</v>
+        <v>0.5357794514463833</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.125678816909071</v>
+        <v>0.1707136684990225</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1401698536741587</v>
+        <v>0.1897780727547268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8966180217411526</v>
+        <v>0.8995436934363666</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42394.7137008465</v>
+        <v>42232.83769300099</v>
       </c>
       <c r="C2" t="n">
-        <v>42822.94313216818</v>
+        <v>42659.43201313231</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91296.77975421166</v>
+        <v>89089.83178762544</v>
       </c>
       <c r="C3" t="n">
-        <v>92218.96944869864</v>
+        <v>89989.72907840954</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39994.3627292602</v>
+        <v>40560.70492666878</v>
       </c>
       <c r="C4" t="n">
-        <v>40398.34619117191</v>
+        <v>40970.40901683715</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.7126146798836</v>
+        <v>504.9708604552432</v>
       </c>
       <c r="C5" t="n">
-        <v>508.8006208887713</v>
+        <v>510.0715762174173</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32639.42997554762</v>
+        <v>33029.79457421951</v>
       </c>
       <c r="C6" t="n">
-        <v>32969.12118742184</v>
+        <v>33363.42886284799</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38338.24915892787</v>
+        <v>39012.5007862605</v>
       </c>
       <c r="C7" t="n">
-        <v>38725.50420093725</v>
+        <v>39406.56645076818</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.34036546522846</v>
+        <v>55.88335486943004</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.05408131179122</v>
+        <v>78.08992131517655</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.355187169554188</v>
+        <v>6.776357761967268</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.0958056876718</v>
+        <v>518.0973923687282</v>
       </c>
       <c r="C3" t="n">
-        <v>6.751084825956555</v>
+        <v>6.750459680382182</v>
       </c>
       <c r="D3" t="n">
-        <v>3457.857738440101</v>
+        <v>3457.868006898281</v>
       </c>
       <c r="E3" t="n">
-        <v>58.07629927935808</v>
+        <v>58.07302540325691</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.9055037897912</v>
+        <v>286.8998842232774</v>
       </c>
       <c r="C4" t="n">
-        <v>7.112059551668764</v>
+        <v>7.111471142627933</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.160948240323</v>
+        <v>2771.168724147186</v>
       </c>
       <c r="E4" t="n">
-        <v>58.07629927935808</v>
+        <v>58.07302540325691</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.5855518968708</v>
+        <v>285.580348050889</v>
       </c>
       <c r="C5" t="n">
-        <v>7.112059551668764</v>
+        <v>7.111471142627933</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.265497745892</v>
+        <v>1266.237854101584</v>
       </c>
       <c r="E5" t="n">
-        <v>58.07629927935808</v>
+        <v>58.07302540325691</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.5802692339043</v>
+        <v>160.5779170129825</v>
       </c>
       <c r="C6" t="n">
-        <v>7.112059551668764</v>
+        <v>7.111471142627933</v>
       </c>
       <c r="D6" t="n">
-        <v>681.7942243982033</v>
+        <v>681.7837283380221</v>
       </c>
       <c r="E6" t="n">
-        <v>58.07629927935808</v>
+        <v>58.07302540325691</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.1257521620141</v>
+        <v>154.1191663090424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5312082847006244</v>
+        <v>0.5311165400789004</v>
       </c>
       <c r="D7" t="n">
-        <v>650.0058062608714</v>
+        <v>649.9773115249399</v>
       </c>
       <c r="E7" t="n">
-        <v>58.07629927935808</v>
+        <v>58.07302540325691</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.3200676509737</v>
+        <v>168.313002179647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5248633487146864</v>
+        <v>0.5248062514591707</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.547230725726</v>
+        <v>2784.537852988454</v>
       </c>
       <c r="E8" t="n">
-        <v>13.26839977972536</v>
+        <v>13.26825466050864</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.1257520471302</v>
+        <v>154.1191661941714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5312082847006244</v>
+        <v>0.5311165400789004</v>
       </c>
       <c r="D9" t="n">
-        <v>2750.798778640767</v>
+        <v>2750.791133823477</v>
       </c>
       <c r="E9" t="n">
-        <v>13.26839977972536</v>
+        <v>13.26825466050864</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.4646418655145</v>
+        <v>150.458529251321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5312082847006244</v>
+        <v>0.5311165400789004</v>
       </c>
       <c r="D10" t="n">
-        <v>634.2148493142024</v>
+        <v>634.1884588713306</v>
       </c>
       <c r="E10" t="n">
-        <v>71.34469905908344</v>
+        <v>71.34128006376554</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.4646418655145</v>
+        <v>150.458529251321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5312082847006244</v>
+        <v>0.5311165400789004</v>
       </c>
       <c r="D11" t="n">
-        <v>634.2148493142024</v>
+        <v>634.1884588713306</v>
       </c>
       <c r="E11" t="n">
-        <v>84.89249726589163</v>
+        <v>84.88915011293744</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5312082847006244</v>
+        <v>0.5311165400789004</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6096865866116</v>
+        <v>251.6096095484004</v>
       </c>
       <c r="E12" t="n">
-        <v>84.89379362078294</v>
+        <v>84.88857642046872</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.58684600226906</v>
+        <v>42.58889353922808</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>178.9516740133996</v>
+        <v>178.9602292208125</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34363258067803</v>
+        <v>71.33805618593199</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.96376901772288</v>
+        <v>41.96607335353531</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.3483064377017</v>
+        <v>176.3579344072911</v>
       </c>
       <c r="E14" t="n">
-        <v>62.38407282028419</v>
+        <v>62.37872729748214</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.59831315445024</v>
+        <v>68.60274665268491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02935734168379782</v>
+        <v>0.02936302418648253</v>
       </c>
       <c r="D15" t="n">
-        <v>287.190872630285</v>
+        <v>287.2094510702959</v>
       </c>
       <c r="E15" t="n">
-        <v>57.96057329090758</v>
+        <v>57.95957935352575</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.21021212791891</v>
+        <v>43.21138391414399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02934616258034145</v>
+        <v>0.02935338716090561</v>
       </c>
       <c r="D16" t="n">
-        <v>180.9704656506086</v>
+        <v>180.9753700589465</v>
       </c>
       <c r="E16" t="n">
-        <v>57.94997085531105</v>
+        <v>57.95048929497726</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>618.4835634758365</v>
+        <v>618.4861897890446</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>77.91093959444939</v>
+        <v>77.91127043352385</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.57756705665709</v>
+        <v>55.58094757983382</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>232.7032732662232</v>
+        <v>232.7174275167642</v>
       </c>
       <c r="E19" t="n">
-        <v>77.91093959444939</v>
+        <v>77.91127043352385</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.46832225333611</v>
+        <v>97.46932413451964</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09258525302190899</v>
+        <v>0.09258170215361171</v>
       </c>
       <c r="D20" t="n">
-        <v>2644.491206165393</v>
+        <v>2644.497580203584</v>
       </c>
       <c r="E20" t="n">
-        <v>27.34403213876319</v>
+        <v>27.33918003411604</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.05766287864547</v>
+        <v>96.05661402599561</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08795599037081354</v>
+        <v>0.08795261704593112</v>
       </c>
       <c r="D21" t="n">
-        <v>402.5450792605695</v>
+        <v>402.5406596430792</v>
       </c>
       <c r="E21" t="n">
-        <v>27.34403213876319</v>
+        <v>27.33918003411604</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.56355155264124</v>
+        <v>66.56769695959129</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>278.7015903509089</v>
+        <v>278.7189471698088</v>
       </c>
       <c r="E22" t="n">
-        <v>618.4835634758365</v>
+        <v>618.4861897890446</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>618.4835634758365</v>
+        <v>618.4861897890446</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.25564261224116</v>
+        <v>39.25606845983448</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>618.4835634758365</v>
+        <v>618.4861897890446</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.77791298078978</v>
+        <v>69.78238163498742</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03090246493031349</v>
+        <v>0.03090844651208688</v>
       </c>
       <c r="D25" t="n">
-        <v>2517.897890238922</v>
+        <v>2517.912118840031</v>
       </c>
       <c r="E25" t="n">
-        <v>30.60689215028177</v>
+        <v>30.61206530803402</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>515.3338378981492</v>
+        <v>515.3351665073513</v>
       </c>
       <c r="C26" t="n">
-        <v>6.149610595988951</v>
+        <v>6.148962039117118</v>
       </c>
       <c r="D26" t="n">
-        <v>3457.857738440101</v>
+        <v>3457.868006898281</v>
       </c>
       <c r="E26" t="n">
-        <v>49.115652142919</v>
+        <v>49.1102926161585</v>
       </c>
       <c r="F26" t="n">
-        <v>6.916272692883199</v>
+        <v>6.916332225293163</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.3612302919015</v>
+        <v>196.3651208418075</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3970428175141383</v>
+        <v>0.3970113068708608</v>
       </c>
       <c r="D27" t="n">
-        <v>2853.440142312425</v>
+        <v>2853.44995329317</v>
       </c>
       <c r="E27" t="n">
-        <v>49.115652142919</v>
+        <v>49.1102926161585</v>
       </c>
       <c r="F27" t="n">
-        <v>7.159766407271431</v>
+        <v>7.159823134845629</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.7933189137904</v>
+        <v>165.7880441153292</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4471449338888077</v>
+        <v>0.4471123272972253</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.547230725726</v>
+        <v>2784.537852988454</v>
       </c>
       <c r="E28" t="n">
-        <v>13.26839977972536</v>
+        <v>13.26825466050864</v>
       </c>
       <c r="F28" t="n">
-        <v>6.954616593472591</v>
+        <v>6.954627756553456</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.4096967048516</v>
+        <v>189.4110458679145</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3970428175141383</v>
+        <v>0.3970113068708608</v>
       </c>
       <c r="D29" t="n">
-        <v>2838.787379871551</v>
+        <v>2838.791976537505</v>
       </c>
       <c r="E29" t="n">
-        <v>62.38405192264436</v>
+        <v>62.37854727666714</v>
       </c>
       <c r="F29" t="n">
-        <v>7.128324278854932</v>
+        <v>7.12836999373733</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.46845343880835</v>
+        <v>97.46927341972594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09259166889760594</v>
+        <v>0.09259442101910213</v>
       </c>
       <c r="D30" t="n">
-        <v>2644.491326787494</v>
+        <v>2644.497533486045</v>
       </c>
       <c r="E30" t="n">
-        <v>62.38405192264436</v>
+        <v>62.37854727666714</v>
       </c>
       <c r="F30" t="n">
-        <v>7.311689902207426</v>
+        <v>7.311693293180751</v>
       </c>
       <c r="G30" t="n">
-        <v>98.80397626563168</v>
+        <v>98.80419172521013</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.77876418623833</v>
+        <v>69.78106391709468</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03090360424821221</v>
+        <v>0.03090668255993881</v>
       </c>
       <c r="D31" t="n">
-        <v>2517.89967276443</v>
+        <v>2517.909180549347</v>
       </c>
       <c r="E31" t="n">
-        <v>35.03037078201855</v>
+        <v>35.0310332311754</v>
       </c>
       <c r="F31" t="n">
-        <v>7.442879561496459</v>
+        <v>7.442863751854979</v>
       </c>
       <c r="G31" t="n">
-        <v>95.37970345857552</v>
+        <v>95.379930999446</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.70262851838464</v>
+        <v>42.68029007928715</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008517527519787179</v>
+        <v>0.008507585435172571</v>
       </c>
       <c r="D32" t="n">
-        <v>2517.89967276443</v>
+        <v>2517.909180549347</v>
       </c>
       <c r="E32" t="n">
-        <v>4.434101964973134</v>
+        <v>4.428238002504887</v>
       </c>
       <c r="F32" t="n">
-        <v>8.013891497016592</v>
+        <v>8.014445433830822</v>
       </c>
       <c r="G32" t="n">
-        <v>97.4813244177187</v>
+        <v>97.48343648581002</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.48195142155254</v>
+        <v>25.4797772741789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003262154753555945</v>
+        <v>0.003261733515072848</v>
       </c>
       <c r="D33" t="n">
-        <v>2513.588190806483</v>
+        <v>2513.636419123248</v>
       </c>
       <c r="E33" t="n">
-        <v>4.434101964973134</v>
+        <v>4.428238002504887</v>
       </c>
       <c r="F33" t="n">
-        <v>8.433208838660722</v>
+        <v>8.433429013376571</v>
       </c>
       <c r="G33" t="n">
-        <v>98.61546573875238</v>
+        <v>98.61760610246147</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.48195142155254</v>
+        <v>25.4797772741789</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003262154753555945</v>
+        <v>0.003261733515072848</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8445881569512</v>
+        <v>106.8354967758549</v>
       </c>
       <c r="E34" t="n">
-        <v>4.434101964973134</v>
+        <v>4.428238002504887</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.50518093462597</v>
+        <v>27.50300540358489</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9405860486683</v>
+        <v>115.931495008564</v>
       </c>
       <c r="E35" t="n">
-        <v>4.434101964973134</v>
+        <v>4.428238002504887</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0873171300765</v>
+        <v>503.0984683867083</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3475.053587922084</v>
+        <v>3475.078199431606</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623149383169943</v>
+        <v>7.623173453852692</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>8.959559760393846</v>
+        <v>8.959328888449846</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0873171300765</v>
+        <v>518.0984683867083</v>
       </c>
       <c r="C42" t="n">
-        <v>6.751677526472776</v>
+        <v>6.75082359516824</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.826905747275</v>
+        <v>3457.866706870635</v>
       </c>
       <c r="E42" t="n">
-        <v>8.959559760393846</v>
+        <v>8.959328888449846</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980460827973252</v>
+        <v>8.980489184471685</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572031300327784</v>
+        <v>3.572042579292407</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944179</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.84615368536106</v>
+        <v>1.847094851572703</v>
       </c>
       <c r="C2" t="n">
-        <v>2.052315383226337</v>
+        <v>2.053430344373253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8995467755344787</v>
+        <v>0.8995166827226725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2263371682396819</v>
+        <v>0.2261905015064903</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.3563262127858</v>
+        <v>125.3438652815119</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.51536013083103</v>
+        <v>31.51421117142285</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.215865510139717</v>
+        <v>6.215839070790766</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.26100959338557</v>
+        <v>46.25639417944317</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.68636440046624</v>
+        <v>29.68314747503601</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8483189109555317</v>
+        <v>0.8483194463249112</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.1209750639607</v>
+        <v>12.11980510147926</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7408676595757955</v>
+        <v>0.7409099597137107</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.434552578336948</v>
+        <v>4.434520798405209</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7377980365975727</v>
+        <v>0.737820009314362</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01911755062168037</v>
+        <v>0.01892080452269012</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03328480537407389</v>
+        <v>0.03302139352948889</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0403325821250543</v>
+        <v>0.04027924504479982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04520798787827403</v>
+        <v>0.0451483227288309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921560993524611</v>
+        <v>0.8921537414960984</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39881.35763835807</v>
+        <v>39879.76513651219</v>
       </c>
       <c r="C2" t="n">
-        <v>40284.19963470512</v>
+        <v>40282.59104698202</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87398.90198836356</v>
+        <v>87396.15711902811</v>
       </c>
       <c r="C3" t="n">
-        <v>88281.71918016522</v>
+        <v>88278.94658487687</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33944.03464486687</v>
+        <v>33941.43074702584</v>
       </c>
       <c r="C4" t="n">
-        <v>34286.90368168371</v>
+        <v>34284.27348184428</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447.7996647286259</v>
+        <v>447.7752295620338</v>
       </c>
       <c r="C5" t="n">
-        <v>452.3228936652787</v>
+        <v>452.298211678822</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29001.74427880471</v>
+        <v>29000.98810507798</v>
       </c>
       <c r="C6" t="n">
-        <v>29294.69119071183</v>
+        <v>29293.92737886664</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32480.30703525796</v>
+        <v>32476.79274773109</v>
       </c>
       <c r="C7" t="n">
-        <v>32808.39094470501</v>
+        <v>32804.84115932434</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.69080847798653</v>
+        <v>60.68033124113667</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.71630648981274</v>
+        <v>70.72623895492283</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.091817447511135</v>
+        <v>6.092946091294783</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25996.16495718654</v>
+        <v>25996.43465989057</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3218.70495598804</v>
+        <v>3218.039029322504</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16946.1204414844</v>
+        <v>16945.98633236203</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.825379546684</v>
+        <v>5906.844030803878</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.413987399517</v>
+        <v>4267.427462088664</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.79404545916</v>
+        <v>15840.8440639894</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29233.7383683934</v>
+        <v>29233.15458620444</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7980626309895336</v>
+        <v>0.7979833003015865</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.7359207482094</v>
+        <v>466.016111723108</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.4110815854503</v>
+        <v>871.7283289011731</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.6786601316864</v>
+        <v>308.9353841423786</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.4861210761973</v>
+        <v>697.1285820394386</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.1978224597236</v>
+        <v>235.4886082131256</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.104498074916</v>
+        <v>617.637032099016</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.2778021122862</v>
+        <v>234.5669068670845</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.1173136426474</v>
+        <v>616.6473817355692</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3122226210367</v>
+        <v>173.917862403014</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1500112345909</v>
+        <v>551.9150362384835</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.1010502495319</v>
+        <v>101.4759132562227</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.0140673905406</v>
+        <v>475.4576827442946</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.3914930715299</v>
+        <v>508.3753520022166</v>
       </c>
       <c r="C3" t="n">
-        <v>7.797874942327402</v>
+        <v>8.360755889106102</v>
       </c>
       <c r="D3" t="n">
-        <v>3425.012938071144</v>
+        <v>3415.993554336897</v>
       </c>
       <c r="E3" t="n">
-        <v>63.39341013226964</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.4369225652893</v>
+        <v>300.9199674221751</v>
       </c>
       <c r="C4" t="n">
-        <v>8.165047647349928</v>
+        <v>8.69976561101649</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.205412338699</v>
+        <v>2747.849747251571</v>
       </c>
       <c r="E4" t="n">
-        <v>63.39341013226964</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.8091049625575</v>
+        <v>298.8742748635855</v>
       </c>
       <c r="C5" t="n">
-        <v>8.165047647349928</v>
+        <v>8.69976561101649</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.028888488459</v>
+        <v>1338.425702970541</v>
       </c>
       <c r="E5" t="n">
-        <v>63.39341013226964</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2109915646628</v>
+        <v>163.8326253848584</v>
       </c>
       <c r="C6" t="n">
-        <v>8.165047647349928</v>
+        <v>8.69976561101649</v>
       </c>
       <c r="D6" t="n">
-        <v>685.1367504322915</v>
+        <v>696.7639005387354</v>
       </c>
       <c r="E6" t="n">
-        <v>63.39341013226964</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.8576933280149</v>
+        <v>162.3704618917756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6160001850126078</v>
+        <v>0.6564134712484018</v>
       </c>
       <c r="D7" t="n">
-        <v>674.8552437762748</v>
+        <v>685.7809460728805</v>
       </c>
       <c r="E7" t="n">
-        <v>63.39341013226964</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.6767415929104</v>
+        <v>175.8409968625858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.609705167604859</v>
+        <v>0.6502922192505174</v>
       </c>
       <c r="D8" t="n">
-        <v>2790.8395754189</v>
+        <v>2793.033256910724</v>
       </c>
       <c r="E8" t="n">
-        <v>15.01040450175415</v>
+        <v>15.29276404871748</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.8576932018272</v>
+        <v>162.3704617604357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6160001850126078</v>
+        <v>0.6564134712484018</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.284659861595</v>
+        <v>2760.01975865594</v>
       </c>
       <c r="E9" t="n">
-        <v>15.01040450175415</v>
+        <v>15.29276404871748</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.7847227276602</v>
+        <v>158.5288298966108</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6160001850126078</v>
+        <v>0.6564134712484018</v>
       </c>
       <c r="D10" t="n">
-        <v>657.2242856367528</v>
+        <v>669.1211911545491</v>
       </c>
       <c r="E10" t="n">
-        <v>78.40381463402379</v>
+        <v>78.50331735241248</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.7847227276602</v>
+        <v>158.5288298966108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6160001850126078</v>
+        <v>0.6564134712484018</v>
       </c>
       <c r="D11" t="n">
-        <v>657.2242856367528</v>
+        <v>669.1211911545491</v>
       </c>
       <c r="E11" t="n">
-        <v>94.53550315196608</v>
+        <v>93.46406561085522</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6160001850126078</v>
+        <v>0.6564134712484018</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6808858591434</v>
+        <v>251.7148201481396</v>
       </c>
       <c r="E12" t="n">
-        <v>94.54084541469085</v>
+        <v>93.46393561185199</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.01618120998944</v>
+        <v>40.96336848827889</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>168.2111516144004</v>
+        <v>172.1685053620887</v>
       </c>
       <c r="E13" t="n">
-        <v>73.08670378111839</v>
+        <v>78.50331735241261</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.01618120998944</v>
+        <v>40.96336848827889</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>168.2111516144004</v>
+        <v>172.1685053620887</v>
       </c>
       <c r="E14" t="n">
-        <v>73.08670378111839</v>
+        <v>78.50331735241261</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.13020420779543</v>
+        <v>71.18019546603614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02408332093212453</v>
+        <v>0.03282822123498966</v>
       </c>
       <c r="D15" t="n">
-        <v>268.4731412244664</v>
+        <v>298.0122118642493</v>
       </c>
       <c r="E15" t="n">
-        <v>59.26854699071546</v>
+        <v>59.73230501583153</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.31067849927962</v>
+        <v>43.79569317685457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02408332093212267</v>
+        <v>0.03282822123498969</v>
       </c>
       <c r="D16" t="n">
-        <v>177.2058461093757</v>
+        <v>183.4208560082383</v>
       </c>
       <c r="E16" t="n">
-        <v>59.26854699072565</v>
+        <v>59.7323050158317</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.94029807194308</v>
+        <v>57.19625144792673</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>221.6610280272257</v>
+        <v>239.4807048124692</v>
       </c>
       <c r="E19" t="n">
         <v>79.75288270042836</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.2142187640184</v>
+        <v>108.8755457680978</v>
       </c>
       <c r="C20" t="n">
-        <v>0.096877351848335</v>
+        <v>0.09092548049811033</v>
       </c>
       <c r="D20" t="n">
-        <v>2631.098922936355</v>
+        <v>2636.905359686395</v>
       </c>
       <c r="E20" t="n">
-        <v>33.32020790526877</v>
+        <v>25.24002201215573</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.30172596870641</v>
+        <v>95.56371570935259</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09203348425591824</v>
+        <v>0.08637920647320481</v>
       </c>
       <c r="D21" t="n">
-        <v>407.7881486392236</v>
+        <v>400.463839379522</v>
       </c>
       <c r="E21" t="n">
-        <v>33.32020790526877</v>
+        <v>25.24002201215573</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.33287714798608</v>
+        <v>68.91840823607225</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9877566186178</v>
+        <v>288.5613752844345</v>
       </c>
       <c r="E22" t="n">
         <v>633.105534945255</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.92342342858552</v>
+        <v>39.45954976398814</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.27468218908763</v>
+        <v>72.38037126033106</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02535086413907845</v>
+        <v>0.0345560223526207</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.182204236977</v>
+        <v>2509.893259499489</v>
       </c>
       <c r="E25" t="n">
-        <v>25.94833908544971</v>
+        <v>34.49228300367579</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.5303561283058</v>
+        <v>505.7378490413095</v>
       </c>
       <c r="C26" t="n">
-        <v>7.191190807108843</v>
+        <v>7.801740402254564</v>
       </c>
       <c r="D26" t="n">
-        <v>3425.012938071144</v>
+        <v>3415.993554336897</v>
       </c>
       <c r="E26" t="n">
-        <v>58.07629927935808</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F26" t="n">
-        <v>6.8057413870815</v>
+        <v>6.758717433759402</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.9578027341868</v>
+        <v>186.6380450132884</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4599567003352925</v>
+        <v>0.5002111221738571</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.15122134276</v>
+        <v>2826.961341855095</v>
       </c>
       <c r="E27" t="n">
-        <v>58.07629927935808</v>
+        <v>63.210553303695</v>
       </c>
       <c r="F27" t="n">
-        <v>7.047789888185507</v>
+        <v>6.998919682217918</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0418797071613</v>
+        <v>173.319683110871</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5240782140441987</v>
+        <v>0.5667676949052387</v>
       </c>
       <c r="D28" t="n">
-        <v>2790.8395754189</v>
+        <v>2793.033256910724</v>
       </c>
       <c r="E28" t="n">
-        <v>15.01040450175415</v>
+        <v>15.29276404871748</v>
       </c>
       <c r="F28" t="n">
-        <v>6.898201058386428</v>
+        <v>6.868387655465101</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.0257683825703</v>
+        <v>183.6125738038029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4599567003352925</v>
+        <v>0.5002111221738571</v>
       </c>
       <c r="D29" t="n">
-        <v>2823.666716174658</v>
+        <v>2820.352013546714</v>
       </c>
       <c r="E29" t="n">
-        <v>73.08670378111223</v>
+        <v>78.50331735241248</v>
       </c>
       <c r="F29" t="n">
-        <v>7.029310653828985</v>
+        <v>6.984497414233207</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.2142187640247</v>
+        <v>108.8755457680994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1021957844099119</v>
+        <v>0.1380464571945086</v>
       </c>
       <c r="D30" t="n">
-        <v>2631.098922936354</v>
+        <v>2636.905359686396</v>
       </c>
       <c r="E30" t="n">
-        <v>73.08670378111223</v>
+        <v>78.50331735241248</v>
       </c>
       <c r="F30" t="n">
-        <v>7.231539442324827</v>
+        <v>7.113478830929568</v>
       </c>
       <c r="G30" t="n">
-        <v>98.01364987800662</v>
+        <v>97.65109340328722</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.27468218908001</v>
+        <v>72.38037126033817</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02535086413907708</v>
+        <v>0.0345560223526211</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.182204236989</v>
+        <v>2509.893259499489</v>
       </c>
       <c r="E31" t="n">
-        <v>39.76649587584648</v>
+        <v>53.26329534025675</v>
       </c>
       <c r="F31" t="n">
-        <v>7.49206678112736</v>
+        <v>7.370948107194551</v>
       </c>
       <c r="G31" t="n">
-        <v>95.18932240023929</v>
+        <v>94.83205642135937</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.27468218908001</v>
+        <v>72.38037126033817</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02535086413907708</v>
+        <v>0.0345560223526211</v>
       </c>
       <c r="D32" t="n">
-        <v>2505.182204236989</v>
+        <v>2509.893259499489</v>
       </c>
       <c r="E32" t="n">
-        <v>13.81815679039274</v>
+        <v>18.7710123365809</v>
       </c>
       <c r="F32" t="n">
-        <v>7.49206678112736</v>
+        <v>7.370948107194551</v>
       </c>
       <c r="G32" t="n">
-        <v>95.18932240023929</v>
+        <v>94.83205642135937</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.75661962994042</v>
+        <v>30.36678245927118</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003953088066972627</v>
+        <v>0.004337211906536958</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.249136716398</v>
+        <v>2360.134277269669</v>
       </c>
       <c r="E33" t="n">
-        <v>13.81815679039274</v>
+        <v>18.7710123365809</v>
       </c>
       <c r="F33" t="n">
-        <v>7.993813842596849</v>
+        <v>7.798460272380853</v>
       </c>
       <c r="G33" t="n">
-        <v>93.9964871012664</v>
+        <v>91.92764362316295</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.75661962994042</v>
+        <v>30.36678245927118</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003953088066972627</v>
+        <v>0.004337211906536958</v>
       </c>
       <c r="D34" t="n">
-        <v>120.5361034697913</v>
+        <v>127.2672238367767</v>
       </c>
       <c r="E34" t="n">
-        <v>13.81815679039274</v>
+        <v>18.7710123365809</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.78173400479426</v>
+        <v>32.39267500991343</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>129.6312974826752</v>
+        <v>136.3617609580558</v>
       </c>
       <c r="E35" t="n">
-        <v>13.81815679039274</v>
+        <v>18.7710123365809</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0873171300765</v>
+        <v>503.0984683867083</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3475.053587922084</v>
+        <v>3475.078199431606</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623149383169943</v>
+        <v>7.623173453852692</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0873171300765</v>
+        <v>518.0984683867083</v>
       </c>
       <c r="C42" t="n">
-        <v>6.751677526472776</v>
+        <v>6.75082359516824</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.826905747275</v>
+        <v>3457.866706870635</v>
       </c>
       <c r="E42" t="n">
-        <v>8.959559760393846</v>
+        <v>8.959328888449846</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
